--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rln1-Rxfp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rln1-Rxfp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.8211865</v>
+        <v>0.9672215</v>
       </c>
       <c r="H2">
-        <v>3.642373</v>
+        <v>1.934443</v>
       </c>
       <c r="I2">
-        <v>0.2180548399056485</v>
+        <v>0.1272529629478492</v>
       </c>
       <c r="J2">
-        <v>0.1588525773132032</v>
+        <v>0.08990764917963651</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.0379235</v>
+        <v>0.008228333333333332</v>
       </c>
       <c r="N2">
-        <v>0.075847</v>
+        <v>0.024685</v>
       </c>
       <c r="O2">
-        <v>0.4231738456874732</v>
+        <v>0.9378799392097265</v>
       </c>
       <c r="P2">
-        <v>0.4045993321313119</v>
+        <v>0.9378799392097265</v>
       </c>
       <c r="Q2">
-        <v>0.06906576623275</v>
+        <v>0.007958620909166665</v>
       </c>
       <c r="R2">
-        <v>0.276263064931</v>
+        <v>0.047751725455</v>
       </c>
       <c r="S2">
-        <v>0.09227510517363957</v>
+        <v>0.1193480011537863</v>
       </c>
       <c r="T2">
-        <v>0.06427164668825959</v>
+        <v>0.0843225805470869</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.8211865</v>
+        <v>0.9672215</v>
       </c>
       <c r="H3">
-        <v>3.642373</v>
+        <v>1.934443</v>
       </c>
       <c r="I3">
-        <v>0.2180548399056485</v>
+        <v>0.1272529629478492</v>
       </c>
       <c r="J3">
-        <v>0.1588525773132032</v>
+        <v>0.08990764917963651</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,33 +623,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.008228333333333332</v>
+        <v>0.000545</v>
       </c>
       <c r="N3">
-        <v>0.024685</v>
+        <v>0.001635</v>
       </c>
       <c r="O3">
-        <v>0.09181682756773746</v>
+        <v>0.06212006079027357</v>
       </c>
       <c r="P3">
-        <v>0.1316800204841514</v>
+        <v>0.06212006079027355</v>
       </c>
       <c r="Q3">
-        <v>0.01498532958416667</v>
+        <v>0.0005271357175</v>
       </c>
       <c r="R3">
-        <v>0.08991197750499999</v>
+        <v>0.003162814305</v>
       </c>
       <c r="S3">
-        <v>0.02002110363592752</v>
+        <v>0.007904961794062819</v>
       </c>
       <c r="T3">
-        <v>0.02091771063456284</v>
+        <v>0.005585068632549608</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.8211865</v>
+        <v>4.803896000000001</v>
       </c>
       <c r="H4">
-        <v>3.642373</v>
+        <v>14.411688</v>
       </c>
       <c r="I4">
-        <v>0.2180548399056485</v>
+        <v>0.6320268932124864</v>
       </c>
       <c r="J4">
-        <v>0.1588525773132032</v>
+        <v>0.6698160601218942</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.043465</v>
+        <v>0.008228333333333332</v>
       </c>
       <c r="N4">
-        <v>0.08692999999999999</v>
+        <v>0.024685</v>
       </c>
       <c r="O4">
-        <v>0.4850093267447894</v>
+        <v>0.9378799392097265</v>
       </c>
       <c r="P4">
-        <v>0.4637206473845366</v>
+        <v>0.9378799392097265</v>
       </c>
       <c r="Q4">
-        <v>0.0791578712225</v>
+        <v>0.03952805758666667</v>
       </c>
       <c r="R4">
-        <v>0.31663148489</v>
+        <v>0.35575251828</v>
       </c>
       <c r="S4">
-        <v>0.1057586310960814</v>
+        <v>0.592765344185039</v>
       </c>
       <c r="T4">
-        <v>0.07366321999038072</v>
+        <v>0.6282070457488206</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,45 +735,45 @@
         <v>14.411688</v>
       </c>
       <c r="I5">
-        <v>0.5751814947032527</v>
+        <v>0.6320268932124864</v>
       </c>
       <c r="J5">
-        <v>0.6285281002889496</v>
+        <v>0.6698160601218942</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.0379235</v>
+        <v>0.000545</v>
       </c>
       <c r="N5">
-        <v>0.075847</v>
+        <v>0.001635</v>
       </c>
       <c r="O5">
-        <v>0.4231738456874732</v>
+        <v>0.06212006079027357</v>
       </c>
       <c r="P5">
-        <v>0.4045993321313119</v>
+        <v>0.06212006079027355</v>
       </c>
       <c r="Q5">
-        <v>0.182180549956</v>
+        <v>0.00261812332</v>
       </c>
       <c r="R5">
-        <v>1.093083299736</v>
+        <v>0.02356310988</v>
       </c>
       <c r="S5">
-        <v>0.2434017650818444</v>
+        <v>0.03926154902744739</v>
       </c>
       <c r="T5">
-        <v>0.2543020496026712</v>
+        <v>0.04160901437307359</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.803896000000001</v>
+        <v>0.1231706666666667</v>
       </c>
       <c r="H6">
-        <v>14.411688</v>
+        <v>0.369512</v>
       </c>
       <c r="I6">
-        <v>0.5751814947032527</v>
+        <v>0.01620500814094312</v>
       </c>
       <c r="J6">
-        <v>0.6285281002889496</v>
+        <v>0.01717391273026181</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,27 +815,27 @@
         <v>0.024685</v>
       </c>
       <c r="O6">
-        <v>0.09181682756773746</v>
+        <v>0.9378799392097265</v>
       </c>
       <c r="P6">
-        <v>0.1316800204841514</v>
+        <v>0.9378799392097265</v>
       </c>
       <c r="Q6">
-        <v>0.03952805758666667</v>
+        <v>0.001013489302222222</v>
       </c>
       <c r="R6">
-        <v>0.35575251828</v>
+        <v>0.009121403719999999</v>
       </c>
       <c r="S6">
-        <v>0.05281134011932205</v>
+        <v>0.01519835205012085</v>
       </c>
       <c r="T6">
-        <v>0.08276459312091368</v>
+        <v>0.01610706822745109</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,51 +853,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.803896000000001</v>
+        <v>0.1231706666666667</v>
       </c>
       <c r="H7">
-        <v>14.411688</v>
+        <v>0.369512</v>
       </c>
       <c r="I7">
-        <v>0.5751814947032527</v>
+        <v>0.01620500814094312</v>
       </c>
       <c r="J7">
-        <v>0.6285281002889496</v>
+        <v>0.01717391273026181</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.043465</v>
+        <v>0.000545</v>
       </c>
       <c r="N7">
-        <v>0.08692999999999999</v>
+        <v>0.001635</v>
       </c>
       <c r="O7">
-        <v>0.4850093267447894</v>
+        <v>0.06212006079027357</v>
       </c>
       <c r="P7">
-        <v>0.4637206473845366</v>
+        <v>0.06212006079027355</v>
       </c>
       <c r="Q7">
-        <v>0.20880133964</v>
+        <v>6.712801333333334E-05</v>
       </c>
       <c r="R7">
-        <v>1.25280803784</v>
+        <v>0.00060415212</v>
       </c>
       <c r="S7">
-        <v>0.2789683895020863</v>
+        <v>0.001006656090822265</v>
       </c>
       <c r="T7">
-        <v>0.2914614575653646</v>
+        <v>0.001066844502810716</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1512303333333333</v>
+        <v>0.319223</v>
       </c>
       <c r="H8">
-        <v>0.453691</v>
+        <v>0.638446</v>
       </c>
       <c r="I8">
-        <v>0.01810715493656353</v>
+        <v>0.04199872789335354</v>
       </c>
       <c r="J8">
-        <v>0.01978654702684333</v>
+        <v>0.02967323358100611</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.0379235</v>
+        <v>0.008228333333333332</v>
       </c>
       <c r="N8">
-        <v>0.075847</v>
+        <v>0.024685</v>
       </c>
       <c r="O8">
-        <v>0.4231738456874732</v>
+        <v>0.9378799392097265</v>
       </c>
       <c r="P8">
-        <v>0.4045993321313119</v>
+        <v>0.9378799392097265</v>
       </c>
       <c r="Q8">
-        <v>0.005735183546166666</v>
+        <v>0.002626673251666666</v>
       </c>
       <c r="R8">
-        <v>0.034411101277</v>
+        <v>0.01576003951</v>
       </c>
       <c r="S8">
-        <v>0.007662474388964503</v>
+        <v>0.03938976436350426</v>
       </c>
       <c r="T8">
-        <v>0.00800562371224561</v>
+        <v>0.02782993050711003</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,25 +968,25 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1512303333333333</v>
+        <v>0.319223</v>
       </c>
       <c r="H9">
-        <v>0.453691</v>
+        <v>0.638446</v>
       </c>
       <c r="I9">
-        <v>0.01810715493656353</v>
+        <v>0.04199872789335354</v>
       </c>
       <c r="J9">
-        <v>0.01978654702684333</v>
+        <v>0.02967323358100611</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,33 +995,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.008228333333333332</v>
+        <v>0.000545</v>
       </c>
       <c r="N9">
-        <v>0.024685</v>
+        <v>0.001635</v>
       </c>
       <c r="O9">
-        <v>0.09181682756773746</v>
+        <v>0.06212006079027357</v>
       </c>
       <c r="P9">
-        <v>0.1316800204841514</v>
+        <v>0.06212006079027355</v>
       </c>
       <c r="Q9">
-        <v>0.001244373592777778</v>
+        <v>0.000173976535</v>
       </c>
       <c r="R9">
-        <v>0.011199362335</v>
+        <v>0.00104385921</v>
       </c>
       <c r="S9">
-        <v>0.00166254152255276</v>
+        <v>0.00260896352984928</v>
       </c>
       <c r="T9">
-        <v>0.002605492917805356</v>
+        <v>0.001843303073896086</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1512303333333333</v>
+        <v>1.270228333333333</v>
       </c>
       <c r="H10">
-        <v>0.453691</v>
+        <v>3.810685</v>
       </c>
       <c r="I10">
-        <v>0.01810715493656353</v>
+        <v>0.1671182030558407</v>
       </c>
       <c r="J10">
-        <v>0.01978654702684333</v>
+        <v>0.1771102741792356</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.043465</v>
+        <v>0.008228333333333332</v>
       </c>
       <c r="N10">
-        <v>0.08692999999999999</v>
+        <v>0.024685</v>
       </c>
       <c r="O10">
-        <v>0.4850093267447894</v>
+        <v>0.9378799392097265</v>
       </c>
       <c r="P10">
-        <v>0.4637206473845366</v>
+        <v>0.9378799392097265</v>
       </c>
       <c r="Q10">
-        <v>0.006573226438333333</v>
+        <v>0.01045186213611111</v>
       </c>
       <c r="R10">
-        <v>0.03943935862999999</v>
+        <v>0.09406675922499999</v>
       </c>
       <c r="S10">
-        <v>0.008782139025046267</v>
+        <v>0.1567368101228506</v>
       </c>
       <c r="T10">
-        <v>0.00917543039679237</v>
+        <v>0.1661081731806395</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.305444</v>
+        <v>1.270228333333333</v>
       </c>
       <c r="H11">
-        <v>0.6108880000000001</v>
+        <v>3.810685</v>
       </c>
       <c r="I11">
-        <v>0.03657151122092159</v>
+        <v>0.1671182030558407</v>
       </c>
       <c r="J11">
-        <v>0.02664228327239085</v>
+        <v>0.1771102741792356</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.0379235</v>
+        <v>0.000545</v>
       </c>
       <c r="N11">
-        <v>0.075847</v>
+        <v>0.001635</v>
       </c>
       <c r="O11">
-        <v>0.4231738456874732</v>
+        <v>0.06212006079027357</v>
       </c>
       <c r="P11">
-        <v>0.4045993321313119</v>
+        <v>0.06212006079027355</v>
       </c>
       <c r="Q11">
-        <v>0.011583505534</v>
+        <v>0.0006922744416666667</v>
       </c>
       <c r="R11">
-        <v>0.04633402213600001</v>
+        <v>0.006230469975</v>
       </c>
       <c r="S11">
-        <v>0.01547610704595997</v>
+        <v>0.01038139293299011</v>
       </c>
       <c r="T11">
-        <v>0.01077945001846256</v>
+        <v>0.01100210099859613</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,22 +1157,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.305444</v>
+        <v>0.1170383333333333</v>
       </c>
       <c r="H12">
-        <v>0.6108880000000001</v>
+        <v>0.351115</v>
       </c>
       <c r="I12">
-        <v>0.03657151122092159</v>
+        <v>0.01539820474952706</v>
       </c>
       <c r="J12">
-        <v>0.02664228327239085</v>
+        <v>0.01631887020796585</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1187,27 +1187,27 @@
         <v>0.024685</v>
       </c>
       <c r="O12">
-        <v>0.09181682756773746</v>
+        <v>0.9378799392097265</v>
       </c>
       <c r="P12">
-        <v>0.1316800204841514</v>
+        <v>0.9378799392097265</v>
       </c>
       <c r="Q12">
-        <v>0.002513295046666667</v>
+        <v>0.0009630304194444444</v>
       </c>
       <c r="R12">
-        <v>0.01507977028</v>
+        <v>0.008667273775</v>
       </c>
       <c r="S12">
-        <v>0.003357880139662933</v>
+        <v>0.01444166733442536</v>
       </c>
       <c r="T12">
-        <v>0.003508256407052992</v>
+        <v>0.01530514099861842</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,427 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.305444</v>
+        <v>0.1170383333333333</v>
       </c>
       <c r="H13">
-        <v>0.6108880000000001</v>
+        <v>0.351115</v>
       </c>
       <c r="I13">
-        <v>0.03657151122092159</v>
+        <v>0.01539820474952706</v>
       </c>
       <c r="J13">
-        <v>0.02664228327239085</v>
+        <v>0.01631887020796585</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.043465</v>
+        <v>0.000545</v>
       </c>
       <c r="N13">
-        <v>0.08692999999999999</v>
+        <v>0.001635</v>
       </c>
       <c r="O13">
-        <v>0.4850093267447894</v>
+        <v>0.06212006079027357</v>
       </c>
       <c r="P13">
-        <v>0.4637206473845366</v>
+        <v>0.06212006079027355</v>
       </c>
       <c r="Q13">
-        <v>0.01327612346</v>
+        <v>6.378589166666668E-05</v>
       </c>
       <c r="R13">
-        <v>0.05310449384</v>
+        <v>0.000574073025</v>
       </c>
       <c r="S13">
-        <v>0.01773752403529869</v>
+        <v>0.0009565374151017001</v>
       </c>
       <c r="T13">
-        <v>0.01235457684687529</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1.077148666666667</v>
-      </c>
-      <c r="H14">
-        <v>3.231446</v>
-      </c>
-      <c r="I14">
-        <v>0.1289694822933196</v>
-      </c>
-      <c r="J14">
-        <v>0.1409310703622174</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.5</v>
-      </c>
-      <c r="M14">
-        <v>0.0379235</v>
-      </c>
-      <c r="N14">
-        <v>0.075847</v>
-      </c>
-      <c r="O14">
-        <v>0.4231738456874732</v>
-      </c>
-      <c r="P14">
-        <v>0.4045993321313119</v>
-      </c>
-      <c r="Q14">
-        <v>0.04084924746033333</v>
-      </c>
-      <c r="R14">
-        <v>0.245095484762</v>
-      </c>
-      <c r="S14">
-        <v>0.05457651179838655</v>
-      </c>
-      <c r="T14">
-        <v>0.05702061694510411</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1.077148666666667</v>
-      </c>
-      <c r="H15">
-        <v>3.231446</v>
-      </c>
-      <c r="I15">
-        <v>0.1289694822933196</v>
-      </c>
-      <c r="J15">
-        <v>0.1409310703622174</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.008228333333333332</v>
-      </c>
-      <c r="N15">
-        <v>0.024685</v>
-      </c>
-      <c r="O15">
-        <v>0.09181682756773746</v>
-      </c>
-      <c r="P15">
-        <v>0.1316800204841514</v>
-      </c>
-      <c r="Q15">
-        <v>0.008863138278888889</v>
-      </c>
-      <c r="R15">
-        <v>0.07976824451</v>
-      </c>
-      <c r="S15">
-        <v>0.0118415687172261</v>
-      </c>
-      <c r="T15">
-        <v>0.01855780623215018</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.077148666666667</v>
-      </c>
-      <c r="H16">
-        <v>3.231446</v>
-      </c>
-      <c r="I16">
-        <v>0.1289694822933196</v>
-      </c>
-      <c r="J16">
-        <v>0.1409310703622174</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.5</v>
-      </c>
-      <c r="M16">
-        <v>0.043465</v>
-      </c>
-      <c r="N16">
-        <v>0.08692999999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.4850093267447894</v>
-      </c>
-      <c r="P16">
-        <v>0.4637206473845366</v>
-      </c>
-      <c r="Q16">
-        <v>0.04681826679666667</v>
-      </c>
-      <c r="R16">
-        <v>0.28090960078</v>
-      </c>
-      <c r="S16">
-        <v>0.062551401777707</v>
-      </c>
-      <c r="T16">
-        <v>0.06535264718496316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.19306</v>
-      </c>
-      <c r="H17">
-        <v>0.57918</v>
-      </c>
-      <c r="I17">
-        <v>0.02311551694029387</v>
-      </c>
-      <c r="J17">
-        <v>0.02525942173639575</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.5</v>
-      </c>
-      <c r="M17">
-        <v>0.0379235</v>
-      </c>
-      <c r="N17">
-        <v>0.075847</v>
-      </c>
-      <c r="O17">
-        <v>0.4231738456874732</v>
-      </c>
-      <c r="P17">
-        <v>0.4045993321313119</v>
-      </c>
-      <c r="Q17">
-        <v>0.007321510910000001</v>
-      </c>
-      <c r="R17">
-        <v>0.04392906546</v>
-      </c>
-      <c r="S17">
-        <v>0.00978188219867809</v>
-      </c>
-      <c r="T17">
-        <v>0.01021994516456886</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.19306</v>
-      </c>
-      <c r="H18">
-        <v>0.57918</v>
-      </c>
-      <c r="I18">
-        <v>0.02311551694029387</v>
-      </c>
-      <c r="J18">
-        <v>0.02525942173639575</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.008228333333333332</v>
-      </c>
-      <c r="N18">
-        <v>0.024685</v>
-      </c>
-      <c r="O18">
-        <v>0.09181682756773746</v>
-      </c>
-      <c r="P18">
-        <v>0.1316800204841514</v>
-      </c>
-      <c r="Q18">
-        <v>0.001588562033333333</v>
-      </c>
-      <c r="R18">
-        <v>0.0142970583</v>
-      </c>
-      <c r="S18">
-        <v>0.002122393433046076</v>
-      </c>
-      <c r="T18">
-        <v>0.003326161171666413</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.19306</v>
-      </c>
-      <c r="H19">
-        <v>0.57918</v>
-      </c>
-      <c r="I19">
-        <v>0.02311551694029387</v>
-      </c>
-      <c r="J19">
-        <v>0.02525942173639575</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.5</v>
-      </c>
-      <c r="M19">
-        <v>0.043465</v>
-      </c>
-      <c r="N19">
-        <v>0.08692999999999999</v>
-      </c>
-      <c r="O19">
-        <v>0.4850093267447894</v>
-      </c>
-      <c r="P19">
-        <v>0.4637206473845366</v>
-      </c>
-      <c r="Q19">
-        <v>0.008391352899999999</v>
-      </c>
-      <c r="R19">
-        <v>0.0503481174</v>
-      </c>
-      <c r="S19">
-        <v>0.0112112413085697</v>
-      </c>
-      <c r="T19">
-        <v>0.01171331540016047</v>
+        <v>0.001013729209347422</v>
       </c>
     </row>
   </sheetData>
